--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H2">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I2">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J2">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2138683333333334</v>
+        <v>0.8562376666666668</v>
       </c>
       <c r="N2">
-        <v>0.6416050000000001</v>
+        <v>2.568713</v>
       </c>
       <c r="O2">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923185</v>
       </c>
       <c r="P2">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923182</v>
       </c>
       <c r="Q2">
-        <v>10.53314830019111</v>
+        <v>65.94042020631568</v>
       </c>
       <c r="R2">
-        <v>94.79833470172002</v>
+        <v>593.463781856841</v>
       </c>
       <c r="S2">
-        <v>0.006716561514346925</v>
+        <v>0.03605137551316494</v>
       </c>
       <c r="T2">
-        <v>0.006716561514346925</v>
+        <v>0.03605137551316494</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H3">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I3">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J3">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.628537</v>
       </c>
       <c r="O3">
-        <v>0.4827046100021922</v>
+        <v>0.448651387965602</v>
       </c>
       <c r="P3">
-        <v>0.4827046100021921</v>
+        <v>0.4486513879656019</v>
       </c>
       <c r="Q3">
-        <v>190.9042241492187</v>
+        <v>298.511595559601</v>
       </c>
       <c r="R3">
-        <v>1718.138017342968</v>
+        <v>2686.604360036409</v>
       </c>
       <c r="S3">
-        <v>0.121731881893625</v>
+        <v>0.1632042015031389</v>
       </c>
       <c r="T3">
-        <v>0.1217318818936249</v>
+        <v>0.1632042015031389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H4">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I4">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J4">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.02104366666666667</v>
+        <v>0.0338</v>
       </c>
       <c r="N4">
-        <v>0.06313099999999999</v>
+        <v>0.1014</v>
       </c>
       <c r="O4">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383465</v>
       </c>
       <c r="P4">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383464</v>
       </c>
       <c r="Q4">
-        <v>1.036413658464889</v>
+        <v>2.6029994822</v>
       </c>
       <c r="R4">
-        <v>9.327722926184</v>
+        <v>23.4269953398</v>
       </c>
       <c r="S4">
-        <v>0.000660878959737277</v>
+        <v>0.001423128810822745</v>
       </c>
       <c r="T4">
-        <v>0.0006608789597372769</v>
+        <v>0.001423128810822745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H5">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I5">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J5">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.628977</v>
+        <v>3.841810666666666</v>
       </c>
       <c r="N5">
-        <v>10.886931</v>
+        <v>11.525432</v>
       </c>
       <c r="O5">
-        <v>0.4519202873479077</v>
+        <v>0.4446733981844117</v>
       </c>
       <c r="P5">
-        <v>0.4519202873479076</v>
+        <v>0.4446733981844115</v>
       </c>
       <c r="Q5">
-        <v>178.729372054376</v>
+        <v>295.8648276936026</v>
       </c>
       <c r="R5">
-        <v>1608.564348489384</v>
+        <v>2662.783449242424</v>
       </c>
       <c r="S5">
-        <v>0.1139684724463657</v>
+        <v>0.161757143356789</v>
       </c>
       <c r="T5">
-        <v>0.1139684724463657</v>
+        <v>0.161757143356789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H6">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I6">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J6">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05256933333333333</v>
+        <v>0.01560133333333333</v>
       </c>
       <c r="N6">
-        <v>0.157708</v>
+        <v>0.046804</v>
       </c>
       <c r="O6">
-        <v>0.006546513859329486</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="P6">
-        <v>0.006546513859329485</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="Q6">
-        <v>2.589072329745778</v>
+        <v>1.201487058825333</v>
       </c>
       <c r="R6">
-        <v>23.301650967712</v>
+        <v>10.813383529428</v>
       </c>
       <c r="S6">
-        <v>0.00165094642857307</v>
+        <v>0.0006568848211217726</v>
       </c>
       <c r="T6">
-        <v>0.00165094642857307</v>
+        <v>0.0006568848211217726</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>49.25062133333333</v>
+        <v>77.011819</v>
       </c>
       <c r="H7">
-        <v>147.751864</v>
+        <v>231.035457</v>
       </c>
       <c r="I7">
-        <v>0.2521871127211155</v>
+        <v>0.363766179891216</v>
       </c>
       <c r="J7">
-        <v>0.2521871127211155</v>
+        <v>0.3637661798912161</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.237489</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N7">
-        <v>0.712467</v>
+        <v>0.047984</v>
       </c>
       <c r="O7">
-        <v>0.02957475264295344</v>
+        <v>0.001851315277247813</v>
       </c>
       <c r="P7">
-        <v>0.02957475264295343</v>
+        <v>0.001851315277247812</v>
       </c>
       <c r="Q7">
-        <v>11.696480809832</v>
+        <v>1.231778374298667</v>
       </c>
       <c r="R7">
-        <v>105.268327288488</v>
+        <v>11.086005368688</v>
       </c>
       <c r="S7">
-        <v>0.007458371478467609</v>
+        <v>0.0006734458861786843</v>
       </c>
       <c r="T7">
-        <v>0.007458371478467608</v>
+        <v>0.0006734458861786843</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>338.356186</v>
       </c>
       <c r="I8">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J8">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2138683333333334</v>
+        <v>0.8562376666666668</v>
       </c>
       <c r="N8">
-        <v>0.6416050000000001</v>
+        <v>2.568713</v>
       </c>
       <c r="O8">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923185</v>
       </c>
       <c r="P8">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923182</v>
       </c>
       <c r="Q8">
-        <v>24.12122452428111</v>
+        <v>96.5711037342909</v>
       </c>
       <c r="R8">
-        <v>217.09102071853</v>
+        <v>869.139933608618</v>
       </c>
       <c r="S8">
-        <v>0.01538112667755453</v>
+        <v>0.05279798208068245</v>
       </c>
       <c r="T8">
-        <v>0.01538112667755453</v>
+        <v>0.05279798208068246</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>338.356186</v>
       </c>
       <c r="I9">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J9">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>11.628537</v>
       </c>
       <c r="O9">
-        <v>0.4827046100021922</v>
+        <v>0.448651387965602</v>
       </c>
       <c r="P9">
-        <v>0.4827046100021921</v>
+        <v>0.4486513879656019</v>
       </c>
       <c r="Q9">
         <v>437.1763808977647</v>
@@ -1013,10 +1013,10 @@
         <v>3934.587428079882</v>
       </c>
       <c r="S9">
-        <v>0.2787696490389414</v>
+        <v>0.2390159150323733</v>
       </c>
       <c r="T9">
-        <v>0.2787696490389413</v>
+        <v>0.2390159150323734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>338.356186</v>
       </c>
       <c r="I10">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J10">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02104366666666667</v>
+        <v>0.0338</v>
       </c>
       <c r="N10">
-        <v>0.06313099999999999</v>
+        <v>0.1014</v>
       </c>
       <c r="O10">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383465</v>
       </c>
       <c r="P10">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383464</v>
       </c>
       <c r="Q10">
-        <v>2.373418264262888</v>
+        <v>3.812146362266666</v>
       </c>
       <c r="R10">
-        <v>21.360764378366</v>
+        <v>34.30931726039999</v>
       </c>
       <c r="S10">
-        <v>0.001513432576555194</v>
+        <v>0.002084201459244844</v>
       </c>
       <c r="T10">
-        <v>0.001513432576555194</v>
+        <v>0.002084201459244844</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>338.356186</v>
       </c>
       <c r="I11">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J11">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.628977</v>
+        <v>3.841810666666666</v>
       </c>
       <c r="N11">
-        <v>10.886931</v>
+        <v>11.525432</v>
       </c>
       <c r="O11">
-        <v>0.4519202873479077</v>
+        <v>0.4446733981844117</v>
       </c>
       <c r="P11">
-        <v>0.4519202873479076</v>
+        <v>0.4446733981844115</v>
       </c>
       <c r="Q11">
-        <v>409.295605600574</v>
+        <v>433.3001348358168</v>
       </c>
       <c r="R11">
-        <v>3683.660450405166</v>
+        <v>3899.701213522351</v>
       </c>
       <c r="S11">
-        <v>0.2609912092966786</v>
+        <v>0.2368966685683157</v>
       </c>
       <c r="T11">
-        <v>0.2609912092966786</v>
+        <v>0.2368966685683158</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>338.356186</v>
       </c>
       <c r="I12">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J12">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05256933333333333</v>
+        <v>0.01560133333333333</v>
       </c>
       <c r="N12">
-        <v>0.157708</v>
+        <v>0.046804</v>
       </c>
       <c r="O12">
-        <v>0.006546513859329486</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="P12">
-        <v>0.006546513859329485</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="Q12">
-        <v>5.929053042409777</v>
+        <v>1.759602547727111</v>
       </c>
       <c r="R12">
-        <v>53.36147738168799</v>
+        <v>15.836422929544</v>
       </c>
       <c r="S12">
-        <v>0.003780716680923263</v>
+        <v>0.0009620213520561703</v>
       </c>
       <c r="T12">
-        <v>0.003780716680923263</v>
+        <v>0.0009620213520561704</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>338.356186</v>
       </c>
       <c r="I13">
-        <v>0.577516027944451</v>
+        <v>0.5327430638656547</v>
       </c>
       <c r="J13">
-        <v>0.577516027944451</v>
+        <v>0.532743063865655</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.237489</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N13">
-        <v>0.712467</v>
+        <v>0.047984</v>
       </c>
       <c r="O13">
-        <v>0.02957475264295344</v>
+        <v>0.001851315277247813</v>
       </c>
       <c r="P13">
-        <v>0.02957475264295343</v>
+        <v>0.001851315277247812</v>
       </c>
       <c r="Q13">
-        <v>26.78529075231799</v>
+        <v>1.803964803224889</v>
       </c>
       <c r="R13">
-        <v>241.067616770862</v>
+        <v>16.235683229024</v>
       </c>
       <c r="S13">
-        <v>0.01707989367379812</v>
+        <v>0.0009862753729822937</v>
       </c>
       <c r="T13">
-        <v>0.01707989367379812</v>
+        <v>0.0009862753729822939</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H14">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I14">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J14">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2138683333333334</v>
+        <v>0.8562376666666668</v>
       </c>
       <c r="N14">
-        <v>0.6416050000000001</v>
+        <v>2.568713</v>
       </c>
       <c r="O14">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923185</v>
       </c>
       <c r="P14">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923182</v>
       </c>
       <c r="Q14">
-        <v>0.01440196485611111</v>
+        <v>0.06904101177633334</v>
       </c>
       <c r="R14">
-        <v>0.129617683705</v>
+        <v>0.621369105987</v>
       </c>
       <c r="S14">
-        <v>9.183548937764195E-06</v>
+        <v>3.774655110734404E-05</v>
       </c>
       <c r="T14">
-        <v>9.183548937764197E-06</v>
+        <v>3.774655110734404E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H15">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I15">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J15">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>11.628537</v>
       </c>
       <c r="O15">
-        <v>0.4827046100021922</v>
+        <v>0.448651387965602</v>
       </c>
       <c r="P15">
-        <v>0.4827046100021921</v>
+        <v>0.4486513879656019</v>
       </c>
       <c r="Q15">
-        <v>0.2610231859196667</v>
+        <v>0.312547941307</v>
       </c>
       <c r="R15">
-        <v>2.349208673277</v>
+        <v>2.812931471763</v>
       </c>
       <c r="S15">
-        <v>0.0001664439002409608</v>
+        <v>0.00017087824376415</v>
       </c>
       <c r="T15">
-        <v>0.0001664439002409608</v>
+        <v>0.00017087824376415</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H16">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I16">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J16">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.02104366666666667</v>
+        <v>0.0338</v>
       </c>
       <c r="N16">
-        <v>0.06313099999999999</v>
+        <v>0.1014</v>
       </c>
       <c r="O16">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383465</v>
       </c>
       <c r="P16">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383464</v>
       </c>
       <c r="Q16">
-        <v>0.001417087527888889</v>
+        <v>0.0027253954</v>
       </c>
       <c r="R16">
-        <v>0.012753787751</v>
+        <v>0.0245285586</v>
       </c>
       <c r="S16">
-        <v>9.036192485875131E-07</v>
+        <v>1.490045903253764E-06</v>
       </c>
       <c r="T16">
-        <v>9.036192485875131E-07</v>
+        <v>1.490045903253764E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H17">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I17">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J17">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.628977</v>
+        <v>3.841810666666666</v>
       </c>
       <c r="N17">
-        <v>10.886931</v>
+        <v>11.525432</v>
       </c>
       <c r="O17">
-        <v>0.4519202873479077</v>
+        <v>0.4446733981844117</v>
       </c>
       <c r="P17">
-        <v>0.4519202873479076</v>
+        <v>0.4446733981844115</v>
       </c>
       <c r="Q17">
-        <v>0.244376520839</v>
+        <v>0.3097767194853333</v>
       </c>
       <c r="R17">
-        <v>2.199388687551</v>
+        <v>2.787990475368</v>
       </c>
       <c r="S17">
-        <v>0.0001558289970005877</v>
+        <v>0.0001693631433415171</v>
       </c>
       <c r="T17">
-        <v>0.0001558289970005877</v>
+        <v>0.0001693631433415171</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H18">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I18">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J18">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.05256933333333333</v>
+        <v>0.01560133333333333</v>
       </c>
       <c r="N18">
-        <v>0.157708</v>
+        <v>0.046804</v>
       </c>
       <c r="O18">
-        <v>0.006546513859329486</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="P18">
-        <v>0.006546513859329485</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="Q18">
-        <v>0.003540036429777777</v>
+        <v>0.001257982310666667</v>
       </c>
       <c r="R18">
-        <v>0.031860327868</v>
+        <v>0.011321840796</v>
       </c>
       <c r="S18">
-        <v>2.257337670181678E-06</v>
+        <v>6.877722727405243E-07</v>
       </c>
       <c r="T18">
-        <v>2.257337670181678E-06</v>
+        <v>6.877722727405243E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06734033333333334</v>
+        <v>0.080633</v>
       </c>
       <c r="H19">
-        <v>0.202021</v>
+        <v>0.241899</v>
       </c>
       <c r="I19">
-        <v>0.0003448152281789993</v>
+        <v>0.0003808708684464188</v>
       </c>
       <c r="J19">
-        <v>0.0003448152281789994</v>
+        <v>0.0003808708684464189</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.237489</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N19">
-        <v>0.712467</v>
+        <v>0.047984</v>
       </c>
       <c r="O19">
-        <v>0.02957475264295344</v>
+        <v>0.001851315277247813</v>
       </c>
       <c r="P19">
-        <v>0.02957475264295343</v>
+        <v>0.001851315277247812</v>
       </c>
       <c r="Q19">
-        <v>0.015992588423</v>
+        <v>0.001289697957333333</v>
       </c>
       <c r="R19">
-        <v>0.143933295807</v>
+        <v>0.011607281616</v>
       </c>
       <c r="S19">
-        <v>1.019782508091745E-05</v>
+        <v>7.051120574134971E-07</v>
       </c>
       <c r="T19">
-        <v>1.019782508091745E-05</v>
+        <v>7.051120574134971E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H20">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I20">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J20">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2138683333333334</v>
+        <v>0.8562376666666668</v>
       </c>
       <c r="N20">
-        <v>0.6416050000000001</v>
+        <v>2.568713</v>
       </c>
       <c r="O20">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923185</v>
       </c>
       <c r="P20">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923182</v>
       </c>
       <c r="Q20">
-        <v>6.944487070442778</v>
+        <v>18.27801156960256</v>
       </c>
       <c r="R20">
-        <v>62.500383633985</v>
+        <v>164.502104126423</v>
       </c>
       <c r="S20">
-        <v>0.004428217781132873</v>
+        <v>0.009993073393648199</v>
       </c>
       <c r="T20">
-        <v>0.004428217781132873</v>
+        <v>0.009993073393648199</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H21">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I21">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J21">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>11.628537</v>
       </c>
       <c r="O21">
-        <v>0.4827046100021922</v>
+        <v>0.448651387965602</v>
       </c>
       <c r="P21">
-        <v>0.4827046100021921</v>
+        <v>0.4486513879656019</v>
       </c>
       <c r="Q21">
-        <v>125.8628359265677</v>
+        <v>82.74436802536967</v>
       </c>
       <c r="R21">
-        <v>1132.765523339109</v>
+        <v>744.699312228327</v>
       </c>
       <c r="S21">
-        <v>0.08025762628402447</v>
+        <v>0.04523853918353418</v>
       </c>
       <c r="T21">
-        <v>0.08025762628402446</v>
+        <v>0.04523853918353418</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H22">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I22">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J22">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.02104366666666667</v>
+        <v>0.0338</v>
       </c>
       <c r="N22">
-        <v>0.06313099999999999</v>
+        <v>0.1014</v>
       </c>
       <c r="O22">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383465</v>
       </c>
       <c r="P22">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383464</v>
       </c>
       <c r="Q22">
-        <v>0.6833057928852222</v>
+        <v>0.7215248932666666</v>
       </c>
       <c r="R22">
-        <v>6.149752135966999</v>
+        <v>6.4937240394</v>
       </c>
       <c r="S22">
-        <v>0.0004357163936389202</v>
+        <v>0.0003944767835550048</v>
       </c>
       <c r="T22">
-        <v>0.0004357163936389201</v>
+        <v>0.0003944767835550049</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H23">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I23">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J23">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.628977</v>
+        <v>3.841810666666666</v>
       </c>
       <c r="N23">
-        <v>10.886931</v>
+        <v>11.525432</v>
       </c>
       <c r="O23">
-        <v>0.4519202873479077</v>
+        <v>0.4446733981844117</v>
       </c>
       <c r="P23">
-        <v>0.4519202873479076</v>
+        <v>0.4446733981844115</v>
       </c>
       <c r="Q23">
-        <v>117.835976288063</v>
+        <v>82.01071098276354</v>
       </c>
       <c r="R23">
-        <v>1060.523786592567</v>
+        <v>738.0963988448719</v>
       </c>
       <c r="S23">
-        <v>0.07513922341030181</v>
+        <v>0.04483742943236613</v>
       </c>
       <c r="T23">
-        <v>0.0751392234103018</v>
+        <v>0.04483742943236614</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H24">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I24">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J24">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.05256933333333333</v>
+        <v>0.01560133333333333</v>
       </c>
       <c r="N24">
-        <v>0.157708</v>
+        <v>0.046804</v>
       </c>
       <c r="O24">
-        <v>0.006546513859329486</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="P24">
-        <v>0.006546513859329485</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="Q24">
-        <v>1.706971059928444</v>
+        <v>0.3330399517204445</v>
       </c>
       <c r="R24">
-        <v>15.362739539356</v>
+        <v>2.997359565484</v>
       </c>
       <c r="S24">
-        <v>0.001088466221159285</v>
+        <v>0.0001820817690089591</v>
       </c>
       <c r="T24">
-        <v>0.001088466221159285</v>
+        <v>0.0001820817690089591</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>32.47085233333333</v>
+        <v>21.34689033333333</v>
       </c>
       <c r="H25">
-        <v>97.41255699999999</v>
+        <v>64.040671</v>
       </c>
       <c r="I25">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893521</v>
       </c>
       <c r="J25">
-        <v>0.1662665419409605</v>
+        <v>0.1008322728893522</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.237489</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N25">
-        <v>0.712467</v>
+        <v>0.047984</v>
       </c>
       <c r="O25">
-        <v>0.02957475264295344</v>
+        <v>0.001851315277247813</v>
       </c>
       <c r="P25">
-        <v>0.02957475264295343</v>
+        <v>0.001851315277247812</v>
       </c>
       <c r="Q25">
-        <v>7.711470249790999</v>
+        <v>0.3414363952515556</v>
       </c>
       <c r="R25">
-        <v>69.403232248119</v>
+        <v>3.072927557264</v>
       </c>
       <c r="S25">
-        <v>0.00491729185070315</v>
+        <v>0.000186672327239678</v>
       </c>
       <c r="T25">
-        <v>0.004917291850703149</v>
+        <v>0.0001866723272396781</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H26">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I26">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J26">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2138683333333334</v>
+        <v>0.8562376666666668</v>
       </c>
       <c r="N26">
-        <v>0.6416050000000001</v>
+        <v>2.568713</v>
       </c>
       <c r="O26">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923185</v>
       </c>
       <c r="P26">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923182</v>
       </c>
       <c r="Q26">
-        <v>0.07494466812944446</v>
+        <v>0.3989219851376667</v>
       </c>
       <c r="R26">
-        <v>0.6745020131650001</v>
+        <v>3.590297866239</v>
       </c>
       <c r="S26">
-        <v>4.77891755928848E-05</v>
+        <v>0.0002181012229169533</v>
       </c>
       <c r="T26">
-        <v>4.77891755928848E-05</v>
+        <v>0.0002181012229169533</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H27">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I27">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J27">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>11.628537</v>
       </c>
       <c r="O27">
-        <v>0.4827046100021922</v>
+        <v>0.448651387965602</v>
       </c>
       <c r="P27">
-        <v>0.4827046100021921</v>
+        <v>0.4486513879656019</v>
       </c>
       <c r="Q27">
-        <v>1.358307441955667</v>
+        <v>1.805915672279</v>
       </c>
       <c r="R27">
-        <v>12.224766977601</v>
+        <v>16.253241050511</v>
       </c>
       <c r="S27">
-        <v>0.0008661375715297696</v>
+        <v>0.0009873419648030119</v>
       </c>
       <c r="T27">
-        <v>0.0008661375715297696</v>
+        <v>0.0009873419648030119</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H28">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I28">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J28">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.02104366666666667</v>
+        <v>0.0338</v>
       </c>
       <c r="N28">
-        <v>0.06313099999999999</v>
+        <v>0.1014</v>
       </c>
       <c r="O28">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383465</v>
       </c>
       <c r="P28">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383464</v>
       </c>
       <c r="Q28">
-        <v>0.007374212862555556</v>
+        <v>0.0157474538</v>
       </c>
       <c r="R28">
-        <v>0.066367915763</v>
+        <v>0.1417270842</v>
       </c>
       <c r="S28">
-        <v>4.702236491851544E-06</v>
+        <v>8.609550387209106E-06</v>
       </c>
       <c r="T28">
-        <v>4.702236491851544E-06</v>
+        <v>8.609550387209106E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H29">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I29">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J29">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.628977</v>
+        <v>3.841810666666666</v>
       </c>
       <c r="N29">
-        <v>10.886931</v>
+        <v>11.525432</v>
       </c>
       <c r="O29">
-        <v>0.4519202873479077</v>
+        <v>0.4446733981844117</v>
       </c>
       <c r="P29">
-        <v>0.4519202873479076</v>
+        <v>0.4446733981844115</v>
       </c>
       <c r="Q29">
-        <v>1.271681845907</v>
+        <v>1.789903431410666</v>
       </c>
       <c r="R29">
-        <v>11.445136613163</v>
+        <v>16.109130882696</v>
       </c>
       <c r="S29">
-        <v>0.000810899941906034</v>
+        <v>0.000978587648307221</v>
       </c>
       <c r="T29">
-        <v>0.000810899941906034</v>
+        <v>0.0009785876483072208</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H30">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I30">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J30">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.05256933333333333</v>
+        <v>0.01560133333333333</v>
       </c>
       <c r="N30">
-        <v>0.157708</v>
+        <v>0.046804</v>
       </c>
       <c r="O30">
-        <v>0.006546513859329486</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="P30">
-        <v>0.006546513859329485</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="Q30">
-        <v>0.01842157358711111</v>
+        <v>0.007268676801333333</v>
       </c>
       <c r="R30">
-        <v>0.165794162284</v>
+        <v>0.065418091212</v>
       </c>
       <c r="S30">
-        <v>1.174669041607013E-05</v>
+        <v>3.973978267484566E-06</v>
       </c>
       <c r="T30">
-        <v>1.174669041607013E-05</v>
+        <v>3.973978267484565E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3504243333333334</v>
+        <v>0.465901</v>
       </c>
       <c r="H31">
-        <v>1.051273</v>
+        <v>1.397703</v>
       </c>
       <c r="I31">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="J31">
-        <v>0.001794342862244129</v>
+        <v>0.002200688532983456</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.237489</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N31">
-        <v>0.712467</v>
+        <v>0.047984</v>
       </c>
       <c r="O31">
-        <v>0.02957475264295344</v>
+        <v>0.001851315277247813</v>
       </c>
       <c r="P31">
-        <v>0.02957475264295343</v>
+        <v>0.001851315277247812</v>
       </c>
       <c r="Q31">
-        <v>0.08322192449900001</v>
+        <v>0.007451931194666667</v>
       </c>
       <c r="R31">
-        <v>0.7489973204910001</v>
+        <v>0.067067380752</v>
       </c>
       <c r="S31">
-        <v>5.306724630751919E-05</v>
+        <v>4.074168301576348E-06</v>
       </c>
       <c r="T31">
-        <v>5.306724630751919E-05</v>
+        <v>4.074168301576348E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H32">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I32">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J32">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.2138683333333334</v>
+        <v>0.8562376666666668</v>
       </c>
       <c r="N32">
-        <v>0.6416050000000001</v>
+        <v>2.568713</v>
       </c>
       <c r="O32">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923185</v>
       </c>
       <c r="P32">
-        <v>0.02663324640928231</v>
+        <v>0.09910590237923182</v>
       </c>
       <c r="Q32">
-        <v>0.07898841928666667</v>
+        <v>0.01394411581422222</v>
       </c>
       <c r="R32">
-        <v>0.7108957735800001</v>
+        <v>0.125497042328</v>
       </c>
       <c r="S32">
-        <v>5.036771171733126E-05</v>
+        <v>7.623617711939282E-06</v>
       </c>
       <c r="T32">
-        <v>5.036771171733126E-05</v>
+        <v>7.623617711939281E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H33">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I33">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J33">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>11.628537</v>
       </c>
       <c r="O33">
-        <v>0.4827046100021922</v>
+        <v>0.448651387965602</v>
       </c>
       <c r="P33">
-        <v>0.4827046100021921</v>
+        <v>0.4486513879656019</v>
       </c>
       <c r="Q33">
-        <v>1.431596942428</v>
+        <v>0.06312486707466666</v>
       </c>
       <c r="R33">
-        <v>12.884372481852</v>
+        <v>0.568123803672</v>
       </c>
       <c r="S33">
-        <v>0.0009128713138306592</v>
+        <v>3.45120379883394E-05</v>
       </c>
       <c r="T33">
-        <v>0.000912871313830659</v>
+        <v>3.45120379883394E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H34">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I34">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J34">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.02104366666666667</v>
+        <v>0.0338</v>
       </c>
       <c r="N34">
-        <v>0.06313099999999999</v>
+        <v>0.1014</v>
       </c>
       <c r="O34">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383465</v>
       </c>
       <c r="P34">
-        <v>0.002620589738334959</v>
+        <v>0.003912207592383464</v>
       </c>
       <c r="Q34">
-        <v>0.007772099497333333</v>
+        <v>0.0005504442666666666</v>
       </c>
       <c r="R34">
-        <v>0.06994889547599999</v>
+        <v>0.0049539984</v>
       </c>
       <c r="S34">
-        <v>4.955952663128933E-06</v>
+        <v>3.009424704085832E-07</v>
       </c>
       <c r="T34">
-        <v>4.955952663128932E-06</v>
+        <v>3.009424704085832E-07</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H35">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I35">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J35">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.628977</v>
+        <v>3.841810666666666</v>
       </c>
       <c r="N35">
-        <v>10.886931</v>
+        <v>11.525432</v>
       </c>
       <c r="O35">
-        <v>0.4519202873479077</v>
+        <v>0.4446733981844117</v>
       </c>
       <c r="P35">
-        <v>0.4519202873479076</v>
+        <v>0.4446733981844115</v>
       </c>
       <c r="Q35">
-        <v>1.340297333364</v>
+        <v>0.06256516731022221</v>
       </c>
       <c r="R35">
-        <v>12.062676000276</v>
+        <v>0.5630865057919999</v>
       </c>
       <c r="S35">
-        <v>0.000854653255654923</v>
+        <v>3.420603529197375E-05</v>
       </c>
       <c r="T35">
-        <v>0.0008546532556549229</v>
+        <v>3.420603529197375E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H36">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I36">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J36">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.05256933333333333</v>
+        <v>0.01560133333333333</v>
       </c>
       <c r="N36">
-        <v>0.157708</v>
+        <v>0.046804</v>
       </c>
       <c r="O36">
-        <v>0.006546513859329486</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="P36">
-        <v>0.006546513859329485</v>
+        <v>0.001805788601123429</v>
       </c>
       <c r="Q36">
-        <v>0.01941553701866667</v>
+        <v>0.0002540729137777778</v>
       </c>
       <c r="R36">
-        <v>0.174739833168</v>
+        <v>0.002286656224</v>
       </c>
       <c r="S36">
-        <v>1.238050058761524E-05</v>
+        <v>1.38908396301808E-07</v>
       </c>
       <c r="T36">
-        <v>1.238050058761524E-05</v>
+        <v>1.38908396301808E-07</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.369332</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H37">
-        <v>1.107996</v>
+        <v>0.048856</v>
       </c>
       <c r="I37">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712933E-05</v>
       </c>
       <c r="J37">
-        <v>0.001891159303049775</v>
+        <v>7.692395234712935E-05</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.237489</v>
+        <v>0.01599466666666667</v>
       </c>
       <c r="N37">
-        <v>0.712467</v>
+        <v>0.047984</v>
       </c>
       <c r="O37">
-        <v>0.02957475264295344</v>
+        <v>0.001851315277247813</v>
       </c>
       <c r="P37">
-        <v>0.02957475264295343</v>
+        <v>0.001851315277247812</v>
       </c>
       <c r="Q37">
-        <v>0.08771228734799999</v>
+        <v>0.0002604784782222222</v>
       </c>
       <c r="R37">
-        <v>0.789410586132</v>
+        <v>0.002344306304</v>
       </c>
       <c r="S37">
-        <v>5.593056859611731E-05</v>
+        <v>1.424104881665233E-07</v>
       </c>
       <c r="T37">
-        <v>5.59305685961173E-05</v>
+        <v>1.424104881665233E-07</v>
       </c>
     </row>
   </sheetData>
